--- a/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/rnw_sum-raw-ss-lookup-tabbed-age.xlsx
+++ b/OUTPUT-FILES/NORMS/TODC_final_gr1_12_10.28.21_fornorms/rnw_sum-raw-ss-lookup-tabbed-age.xlsx
@@ -433,7 +433,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -449,7 +449,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
@@ -465,7 +465,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12">
@@ -473,7 +473,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13">
@@ -481,7 +481,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14">
@@ -489,7 +489,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15">
@@ -497,7 +497,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16">
@@ -505,7 +505,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17">
@@ -513,7 +513,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="18">
@@ -521,7 +521,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19">
@@ -529,7 +529,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>108</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20">
@@ -537,7 +537,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21">
@@ -545,7 +545,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="22">
@@ -553,7 +553,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23">
@@ -561,7 +561,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24">
@@ -569,7 +569,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
@@ -577,7 +577,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>117</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26">
@@ -585,7 +585,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="27">
@@ -593,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28">
@@ -601,7 +601,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="29">
@@ -609,7 +609,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="30">
@@ -617,7 +617,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31">
@@ -625,7 +625,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
@@ -633,7 +633,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -906,7 +906,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3">
@@ -914,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
@@ -922,7 +922,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5">
@@ -930,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6">
@@ -938,7 +938,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7">
@@ -946,7 +946,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8">
@@ -954,7 +954,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9">
@@ -962,7 +962,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
@@ -970,7 +970,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11">
@@ -978,7 +978,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -986,7 +986,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="13">
@@ -994,7 +994,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14">
@@ -1002,7 +1002,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
@@ -1010,7 +1010,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="16">
@@ -1018,7 +1018,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -1026,7 +1026,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18">
@@ -1034,7 +1034,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="19">
@@ -1042,7 +1042,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20">
@@ -1050,7 +1050,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21">
@@ -1058,7 +1058,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22">
@@ -1066,7 +1066,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23">
@@ -1074,7 +1074,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24">
@@ -1082,7 +1082,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="25">
@@ -1090,7 +1090,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26">
@@ -1098,7 +1098,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27">
@@ -1106,7 +1106,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28">
@@ -1114,7 +1114,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29">
@@ -1122,7 +1122,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30">
@@ -1130,7 +1130,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31">
@@ -1138,7 +1138,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32">
@@ -1146,7 +1146,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="33">
@@ -1154,7 +1154,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34">
@@ -1162,7 +1162,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="35">
@@ -1170,7 +1170,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36">
@@ -1178,7 +1178,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37">
@@ -1186,7 +1186,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38">
@@ -1194,7 +1194,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="39">
@@ -1202,7 +1202,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40">
@@ -1210,7 +1210,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="41">
@@ -1218,7 +1218,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="42">
@@ -1226,7 +1226,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43">
@@ -1234,7 +1234,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44">
@@ -1242,7 +1242,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="45">
@@ -1250,7 +1250,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46">
@@ -1258,7 +1258,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47">
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -1427,7 +1427,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
@@ -1435,7 +1435,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
@@ -1443,7 +1443,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6">
@@ -1451,7 +1451,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7">
@@ -1459,7 +1459,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8">
@@ -1467,7 +1467,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1475,7 +1475,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10">
@@ -1483,7 +1483,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11">
@@ -1491,7 +1491,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12">
@@ -1499,7 +1499,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13">
@@ -1507,7 +1507,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -1515,7 +1515,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15">
@@ -1523,7 +1523,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
@@ -1531,7 +1531,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17">
@@ -1539,7 +1539,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18">
@@ -1547,7 +1547,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -1555,7 +1555,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="20">
@@ -1563,7 +1563,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21">
@@ -1571,7 +1571,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22">
@@ -1579,7 +1579,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23">
@@ -1587,7 +1587,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24">
@@ -1595,7 +1595,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25">
@@ -1603,7 +1603,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="26">
@@ -1611,7 +1611,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="27">
@@ -1619,7 +1619,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28">
@@ -1627,7 +1627,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29">
@@ -1635,7 +1635,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30">
@@ -1643,7 +1643,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31">
@@ -1651,7 +1651,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32">
@@ -1659,7 +1659,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33">
@@ -1667,7 +1667,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="34">
@@ -1675,7 +1675,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35">
@@ -1683,7 +1683,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36">
@@ -1691,7 +1691,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37">
@@ -1699,7 +1699,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="38">
@@ -1707,7 +1707,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39">
@@ -1715,7 +1715,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="40">
@@ -1723,7 +1723,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41">
@@ -1731,7 +1731,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="42">
@@ -1739,7 +1739,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="43">
@@ -1747,7 +1747,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="44">
@@ -1755,7 +1755,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
@@ -1763,7 +1763,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="47">
@@ -1779,7 +1779,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="48">
@@ -1932,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3">
@@ -1940,7 +1940,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4">
@@ -1948,7 +1948,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
@@ -1956,7 +1956,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6">
@@ -1964,7 +1964,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7">
@@ -1972,7 +1972,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8">
@@ -1980,7 +1980,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9">
@@ -1988,7 +1988,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10">
@@ -1996,7 +1996,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11">
@@ -2004,7 +2004,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12">
@@ -2012,7 +2012,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="13">
@@ -2020,7 +2020,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14">
@@ -2028,7 +2028,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15">
@@ -2036,7 +2036,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16">
@@ -2044,7 +2044,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17">
@@ -2052,7 +2052,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
@@ -2060,7 +2060,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19">
@@ -2068,7 +2068,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -2076,7 +2076,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
@@ -2084,7 +2084,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22">
@@ -2092,7 +2092,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="23">
@@ -2100,7 +2100,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="24">
@@ -2108,7 +2108,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25">
@@ -2116,7 +2116,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26">
@@ -2124,7 +2124,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27">
@@ -2132,7 +2132,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="28">
@@ -2140,7 +2140,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="29">
@@ -2148,7 +2148,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30">
@@ -2156,7 +2156,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31">
@@ -2164,7 +2164,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32">
@@ -2172,7 +2172,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33">
@@ -2180,7 +2180,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34">
@@ -2188,7 +2188,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35">
@@ -2196,7 +2196,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36">
@@ -2204,7 +2204,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37">
@@ -2212,7 +2212,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38">
@@ -2220,7 +2220,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="39">
@@ -2228,7 +2228,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="40">
@@ -2236,7 +2236,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="41">
@@ -2244,7 +2244,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="42">
@@ -2252,7 +2252,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="43">
@@ -2260,7 +2260,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44">
@@ -2268,7 +2268,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="45">
@@ -2276,7 +2276,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="46">
@@ -2284,7 +2284,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="47">
@@ -2292,7 +2292,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48">
@@ -2300,7 +2300,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49">
@@ -2308,7 +2308,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50">
@@ -2445,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3">
@@ -2453,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
@@ -2461,7 +2461,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -2469,7 +2469,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -2477,7 +2477,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
@@ -2485,7 +2485,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8">
@@ -2493,7 +2493,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9">
@@ -2501,7 +2501,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10">
@@ -2509,7 +2509,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11">
@@ -2517,7 +2517,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12">
@@ -2525,7 +2525,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13">
@@ -2533,7 +2533,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14">
@@ -2541,7 +2541,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15">
@@ -2549,7 +2549,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16">
@@ -2557,7 +2557,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="17">
@@ -2565,7 +2565,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18">
@@ -2573,7 +2573,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
@@ -2581,7 +2581,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20">
@@ -2589,7 +2589,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21">
@@ -2597,7 +2597,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="22">
@@ -2605,7 +2605,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23">
@@ -2613,7 +2613,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="24">
@@ -2621,7 +2621,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -2629,7 +2629,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26">
@@ -2637,7 +2637,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27">
@@ -2645,7 +2645,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28">
@@ -2653,7 +2653,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29">
@@ -2661,7 +2661,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30">
@@ -2669,7 +2669,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31">
@@ -2677,7 +2677,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32">
@@ -2685,7 +2685,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33">
@@ -2693,7 +2693,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34">
@@ -2701,7 +2701,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35">
@@ -2709,7 +2709,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36">
@@ -2717,7 +2717,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37">
@@ -2725,7 +2725,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38">
@@ -2733,7 +2733,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39">
@@ -2741,7 +2741,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40">
@@ -2749,7 +2749,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="41">
@@ -2757,7 +2757,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="42">
@@ -2765,7 +2765,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="43">
@@ -2773,7 +2773,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44">
@@ -2781,7 +2781,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="45">
@@ -2789,7 +2789,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="46">
@@ -2797,7 +2797,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="47">
@@ -2805,7 +2805,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="48">
@@ -2813,7 +2813,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49">
@@ -2821,7 +2821,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50">
@@ -2958,7 +2958,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -2966,7 +2966,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4">
@@ -2974,7 +2974,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5">
@@ -2982,7 +2982,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6">
@@ -2990,7 +2990,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
@@ -2998,7 +2998,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8">
@@ -3006,7 +3006,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9">
@@ -3014,7 +3014,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="10">
@@ -3022,7 +3022,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11">
@@ -3030,7 +3030,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12">
@@ -3038,7 +3038,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13">
@@ -3046,7 +3046,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14">
@@ -3054,7 +3054,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15">
@@ -3062,7 +3062,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16">
@@ -3070,7 +3070,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="17">
@@ -3078,7 +3078,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18">
@@ -3086,7 +3086,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19">
@@ -3094,7 +3094,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
@@ -3102,7 +3102,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="21">
@@ -3110,7 +3110,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22">
@@ -3118,7 +3118,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -3126,7 +3126,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
@@ -3134,7 +3134,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="25">
@@ -3142,7 +3142,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
@@ -3150,7 +3150,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27">
@@ -3158,7 +3158,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28">
@@ -3166,7 +3166,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="29">
@@ -3174,7 +3174,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="30">
@@ -3182,7 +3182,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31">
@@ -3190,7 +3190,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32">
@@ -3198,7 +3198,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="33">
@@ -3206,7 +3206,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34">
@@ -3214,7 +3214,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35">
@@ -3222,7 +3222,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36">
@@ -3230,7 +3230,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37">
@@ -3238,7 +3238,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38">
@@ -3246,7 +3246,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39">
@@ -3254,7 +3254,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40">
@@ -3262,7 +3262,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41">
@@ -3270,7 +3270,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42">
@@ -3278,7 +3278,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="43">
@@ -3286,7 +3286,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44">
@@ -3294,7 +3294,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45">
@@ -3302,7 +3302,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="46">
@@ -3310,7 +3310,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="47">
@@ -3318,7 +3318,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48">
@@ -3326,7 +3326,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="49">
@@ -3334,7 +3334,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50">
@@ -3342,7 +3342,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="51">
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3">
@@ -3479,7 +3479,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -3487,7 +3487,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5">
@@ -3495,7 +3495,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6">
@@ -3503,7 +3503,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="7">
@@ -3511,7 +3511,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -3519,7 +3519,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9">
@@ -3527,7 +3527,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10">
@@ -3535,7 +3535,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11">
@@ -3543,7 +3543,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12">
@@ -3551,7 +3551,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
@@ -3559,7 +3559,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14">
@@ -3567,7 +3567,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15">
@@ -3575,7 +3575,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16">
@@ -3583,7 +3583,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17">
@@ -3591,7 +3591,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18">
@@ -3599,7 +3599,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19">
@@ -3607,7 +3607,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="20">
@@ -3615,7 +3615,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
@@ -3623,7 +3623,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
@@ -3631,7 +3631,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23">
@@ -3639,7 +3639,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24">
@@ -3647,7 +3647,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25">
@@ -3655,7 +3655,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="26">
@@ -3663,7 +3663,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27">
@@ -3671,7 +3671,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28">
@@ -3679,7 +3679,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="29">
@@ -3687,7 +3687,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30">
@@ -3695,7 +3695,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31">
@@ -3703,7 +3703,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32">
@@ -3711,7 +3711,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="33">
@@ -3719,7 +3719,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="34">
@@ -3727,7 +3727,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35">
@@ -3735,7 +3735,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36">
@@ -3743,7 +3743,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37">
@@ -3751,7 +3751,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="38">
@@ -3759,7 +3759,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="39">
@@ -3767,7 +3767,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40">
@@ -3775,7 +3775,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41">
@@ -3783,7 +3783,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42">
@@ -3791,7 +3791,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43">
@@ -3799,7 +3799,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44">
@@ -3807,7 +3807,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45">
@@ -3815,7 +3815,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46">
@@ -3823,7 +3823,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="47">
@@ -3831,7 +3831,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="48">
@@ -3839,7 +3839,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49">
@@ -3847,7 +3847,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50">
@@ -3855,7 +3855,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="51">
@@ -3863,7 +3863,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52">
@@ -3984,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3">
@@ -3992,7 +3992,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -4000,7 +4000,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
@@ -4008,7 +4008,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6">
@@ -4016,7 +4016,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7">
@@ -4024,7 +4024,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8">
@@ -4032,7 +4032,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -4040,7 +4040,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -4048,7 +4048,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11">
@@ -4056,7 +4056,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12">
@@ -4064,7 +4064,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="13">
@@ -4072,7 +4072,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14">
@@ -4080,7 +4080,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15">
@@ -4088,7 +4088,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16">
@@ -4096,7 +4096,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17">
@@ -4104,7 +4104,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18">
@@ -4112,7 +4112,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
@@ -4120,7 +4120,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20">
@@ -4128,7 +4128,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21">
@@ -4136,7 +4136,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
@@ -4144,7 +4144,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23">
@@ -4152,7 +4152,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24">
@@ -4160,7 +4160,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -4168,7 +4168,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26">
@@ -4176,7 +4176,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27">
@@ -4184,7 +4184,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28">
@@ -4192,7 +4192,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="29">
@@ -4200,7 +4200,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30">
@@ -4208,7 +4208,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31">
@@ -4216,7 +4216,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32">
@@ -4224,7 +4224,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="33">
@@ -4232,7 +4232,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="34">
@@ -4240,7 +4240,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35">
@@ -4248,7 +4248,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36">
@@ -4256,7 +4256,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37">
@@ -4264,7 +4264,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38">
@@ -4272,7 +4272,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39">
@@ -4280,7 +4280,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40">
@@ -4288,7 +4288,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41">
@@ -4296,7 +4296,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42">
@@ -4304,7 +4304,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43">
@@ -4312,7 +4312,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44">
@@ -4320,7 +4320,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45">
@@ -4328,7 +4328,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46">
@@ -4336,7 +4336,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47">
@@ -4344,7 +4344,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="48">
@@ -4352,7 +4352,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="49">
@@ -4360,7 +4360,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="50">
@@ -4368,7 +4368,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="51">
@@ -4376,7 +4376,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="52">
@@ -4497,7 +4497,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -4505,7 +4505,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
@@ -4513,7 +4513,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5">
@@ -4521,7 +4521,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
@@ -4529,7 +4529,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7">
@@ -4537,7 +4537,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8">
@@ -4545,7 +4545,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
@@ -4553,7 +4553,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
@@ -4561,7 +4561,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="11">
@@ -4569,7 +4569,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -4577,7 +4577,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13">
@@ -4585,7 +4585,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14">
@@ -4593,7 +4593,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15">
@@ -4601,7 +4601,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16">
@@ -4609,7 +4609,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17">
@@ -4617,7 +4617,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18">
@@ -4625,7 +4625,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19">
@@ -4633,7 +4633,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="20">
@@ -4641,7 +4641,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
@@ -4649,7 +4649,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
@@ -4657,7 +4657,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23">
@@ -4665,7 +4665,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
@@ -4673,7 +4673,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="25">
@@ -4681,7 +4681,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26">
@@ -4689,7 +4689,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27">
@@ -4697,7 +4697,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="28">
@@ -4705,7 +4705,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="29">
@@ -4713,7 +4713,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30">
@@ -4721,7 +4721,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="31">
@@ -4729,7 +4729,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32">
@@ -4737,7 +4737,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="33">
@@ -4745,7 +4745,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34">
@@ -4753,7 +4753,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="35">
@@ -4761,7 +4761,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36">
@@ -4769,7 +4769,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37">
@@ -4777,7 +4777,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38">
@@ -4785,7 +4785,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39">
@@ -4793,7 +4793,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="40">
@@ -4801,7 +4801,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41">
@@ -4809,7 +4809,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42">
@@ -4817,7 +4817,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="43">
@@ -4825,7 +4825,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44">
@@ -4833,7 +4833,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45">
@@ -4841,7 +4841,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46">
@@ -4849,7 +4849,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47">
@@ -4857,7 +4857,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48">
@@ -4865,7 +4865,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49">
@@ -4873,7 +4873,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="50">
@@ -4881,7 +4881,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="51">
@@ -4889,7 +4889,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52">
@@ -4897,7 +4897,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="53">
@@ -5010,7 +5010,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3">
@@ -5018,7 +5018,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4">
@@ -5026,7 +5026,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -5034,7 +5034,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6">
@@ -5042,7 +5042,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7">
@@ -5050,7 +5050,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -5058,7 +5058,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9">
@@ -5066,7 +5066,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10">
@@ -5074,7 +5074,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11">
@@ -5082,7 +5082,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -5090,7 +5090,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -5098,7 +5098,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14">
@@ -5106,7 +5106,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15">
@@ -5114,7 +5114,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16">
@@ -5122,7 +5122,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17">
@@ -5130,7 +5130,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
@@ -5138,7 +5138,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19">
@@ -5146,7 +5146,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20">
@@ -5154,7 +5154,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
@@ -5162,7 +5162,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22">
@@ -5170,7 +5170,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
@@ -5178,7 +5178,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24">
@@ -5186,7 +5186,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
@@ -5194,7 +5194,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26">
@@ -5202,7 +5202,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27">
@@ -5210,7 +5210,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="28">
@@ -5218,7 +5218,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29">
@@ -5226,7 +5226,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="30">
@@ -5234,7 +5234,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="31">
@@ -5242,7 +5242,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="32">
@@ -5250,7 +5250,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33">
@@ -5258,7 +5258,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34">
@@ -5266,7 +5266,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="35">
@@ -5274,7 +5274,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="36">
@@ -5282,7 +5282,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37">
@@ -5290,7 +5290,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38">
@@ -5298,7 +5298,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="39">
@@ -5306,7 +5306,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40">
@@ -5314,7 +5314,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41">
@@ -5322,7 +5322,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42">
@@ -5330,7 +5330,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43">
@@ -5338,7 +5338,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="44">
@@ -5346,7 +5346,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="45">
@@ -5354,7 +5354,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46">
@@ -5362,7 +5362,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47">
@@ -5370,7 +5370,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48">
@@ -5378,7 +5378,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49">
@@ -5386,7 +5386,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="50">
@@ -5394,7 +5394,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51">
@@ -5402,7 +5402,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52">
@@ -5410,7 +5410,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53">
@@ -5418,7 +5418,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="54">
@@ -5523,7 +5523,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -5531,7 +5531,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -5539,7 +5539,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5">
@@ -5547,7 +5547,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6">
@@ -5555,7 +5555,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -5563,7 +5563,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8">
@@ -5571,7 +5571,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9">
@@ -5579,7 +5579,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
@@ -5587,7 +5587,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -5595,7 +5595,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12">
@@ -5603,7 +5603,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13">
@@ -5611,7 +5611,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14">
@@ -5619,7 +5619,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15">
@@ -5627,7 +5627,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16">
@@ -5635,7 +5635,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
@@ -5643,7 +5643,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18">
@@ -5651,7 +5651,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19">
@@ -5659,7 +5659,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20">
@@ -5667,7 +5667,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21">
@@ -5675,7 +5675,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22">
@@ -5683,7 +5683,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23">
@@ -5691,7 +5691,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24">
@@ -5699,7 +5699,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="25">
@@ -5707,7 +5707,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26">
@@ -5715,7 +5715,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
@@ -5723,7 +5723,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28">
@@ -5731,7 +5731,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29">
@@ -5739,7 +5739,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30">
@@ -5747,7 +5747,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="31">
@@ -5755,7 +5755,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="32">
@@ -5763,7 +5763,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33">
@@ -5771,7 +5771,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34">
@@ -5779,7 +5779,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35">
@@ -5787,7 +5787,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="36">
@@ -5795,7 +5795,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37">
@@ -5803,7 +5803,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38">
@@ -5811,7 +5811,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39">
@@ -5819,7 +5819,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="40">
@@ -5827,7 +5827,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41">
@@ -5835,7 +5835,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="42">
@@ -5843,7 +5843,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="43">
@@ -5867,7 +5867,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="46">
@@ -5875,7 +5875,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="47">
@@ -5883,7 +5883,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48">
@@ -5891,7 +5891,7 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="49">
@@ -5899,7 +5899,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50">
@@ -5907,7 +5907,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51">
@@ -5915,7 +5915,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="52">
@@ -5923,7 +5923,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="53">
@@ -5931,7 +5931,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54">
@@ -5939,7 +5939,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55">
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -6052,7 +6052,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5">
@@ -6140,7 +6140,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16">
@@ -6148,7 +6148,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="17">
@@ -6156,7 +6156,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18">
@@ -6164,7 +6164,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19">
@@ -6172,7 +6172,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20">
@@ -6180,7 +6180,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21">
@@ -6188,7 +6188,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22">
@@ -6196,7 +6196,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23">
@@ -6204,7 +6204,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>111</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24">
@@ -6212,7 +6212,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25">
@@ -6220,7 +6220,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>114</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26">
@@ -6228,7 +6228,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27">
@@ -6236,7 +6236,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28">
@@ -6244,7 +6244,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>119</v>
+        <v>124</v>
       </c>
     </row>
     <row r="29">
@@ -6252,7 +6252,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30">
@@ -6260,7 +6260,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="31">
@@ -6268,7 +6268,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="32">
@@ -6276,7 +6276,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
@@ -6284,7 +6284,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="34">
@@ -6292,7 +6292,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
@@ -6605,7 +6605,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="10">
@@ -6613,7 +6613,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11">
@@ -6621,7 +6621,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
@@ -6629,7 +6629,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13">
@@ -6637,7 +6637,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14">
@@ -6645,7 +6645,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15">
@@ -6653,7 +6653,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="16">
@@ -6661,7 +6661,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17">
@@ -6669,7 +6669,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18">
@@ -6677,7 +6677,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19">
@@ -6685,7 +6685,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20">
@@ -6725,7 +6725,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25">
@@ -6733,7 +6733,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26">
@@ -6789,7 +6789,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33">
@@ -6813,7 +6813,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="36">
@@ -6829,7 +6829,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38">
@@ -6845,7 +6845,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="40">
@@ -6853,7 +6853,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41">
@@ -6861,7 +6861,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42">
@@ -6869,7 +6869,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="43">
@@ -6877,7 +6877,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="44">
@@ -6885,7 +6885,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45">
@@ -6893,7 +6893,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46">
@@ -6901,7 +6901,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="47">
@@ -6933,7 +6933,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="51">
@@ -6941,7 +6941,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="52">
@@ -6949,7 +6949,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53">
@@ -6957,7 +6957,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="54">
@@ -6965,7 +6965,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="55">
@@ -6973,7 +6973,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56">
@@ -6981,7 +6981,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="57">
@@ -6989,7 +6989,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="58">
@@ -7062,7 +7062,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
@@ -7070,7 +7070,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
@@ -7078,7 +7078,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5">
@@ -7086,7 +7086,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
@@ -7102,7 +7102,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -7118,7 +7118,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
@@ -7134,7 +7134,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12">
@@ -7190,7 +7190,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19">
@@ -7206,7 +7206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21">
@@ -7214,7 +7214,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="22">
@@ -7222,7 +7222,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23">
@@ -7230,7 +7230,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24">
@@ -7238,7 +7238,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25">
@@ -7246,7 +7246,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26">
@@ -7254,7 +7254,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27">
@@ -7262,7 +7262,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="28">
@@ -7270,7 +7270,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="29">
@@ -7278,7 +7278,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="30">
@@ -7286,7 +7286,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="31">
@@ -7294,7 +7294,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="32">
@@ -7302,7 +7302,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="33">
@@ -7310,7 +7310,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="34">
@@ -7318,7 +7318,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35">
@@ -7326,7 +7326,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="36">
@@ -7334,7 +7334,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
@@ -7575,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
@@ -7583,7 +7583,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
@@ -7591,7 +7591,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
@@ -7599,7 +7599,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -7607,7 +7607,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -7615,7 +7615,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
@@ -7623,7 +7623,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9">
@@ -7631,7 +7631,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10">
@@ -7639,7 +7639,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11">
@@ -7655,7 +7655,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13">
@@ -7663,7 +7663,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14">
@@ -7671,7 +7671,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15">
@@ -7679,7 +7679,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="16">
@@ -7695,7 +7695,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18">
@@ -7711,7 +7711,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20">
@@ -7743,7 +7743,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24">
@@ -7759,7 +7759,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="26">
@@ -7767,7 +7767,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="27">
@@ -7775,7 +7775,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28">
@@ -7783,7 +7783,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
@@ -7791,7 +7791,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30">
@@ -7799,7 +7799,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31">
@@ -7807,7 +7807,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32">
@@ -7815,7 +7815,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>120</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33">
@@ -7823,7 +7823,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34">
@@ -7831,7 +7831,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35">
@@ -7839,7 +7839,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36">
@@ -7847,7 +7847,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="37">
@@ -7855,7 +7855,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="38">
@@ -8088,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
@@ -8096,7 +8096,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
@@ -8104,7 +8104,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
@@ -8112,7 +8112,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
@@ -8120,7 +8120,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
@@ -8128,7 +8128,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
@@ -8136,7 +8136,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -8144,7 +8144,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10">
@@ -8152,7 +8152,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11">
@@ -8160,7 +8160,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12">
@@ -8168,7 +8168,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13">
@@ -8176,7 +8176,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14">
@@ -8184,7 +8184,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15">
@@ -8192,7 +8192,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16">
@@ -8200,7 +8200,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="17">
@@ -8208,7 +8208,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18">
@@ -8216,7 +8216,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19">
@@ -8224,7 +8224,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -8232,7 +8232,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21">
@@ -8248,7 +8248,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="23">
@@ -8264,7 +8264,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25">
@@ -8280,7 +8280,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27">
@@ -8296,7 +8296,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29">
@@ -8312,7 +8312,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31">
@@ -8320,7 +8320,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32">
@@ -8328,7 +8328,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33">
@@ -8336,7 +8336,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="34">
@@ -8344,7 +8344,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35">
@@ -8352,7 +8352,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="36">
@@ -8360,7 +8360,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>124</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37">
@@ -8368,7 +8368,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="38">
@@ -8376,7 +8376,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39">
@@ -8384,7 +8384,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40">
@@ -8601,7 +8601,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -8609,7 +8609,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4">
@@ -8617,7 +8617,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
@@ -8625,7 +8625,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -8633,7 +8633,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
@@ -8641,7 +8641,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
@@ -8649,7 +8649,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9">
@@ -8657,7 +8657,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -8665,7 +8665,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11">
@@ -8673,7 +8673,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12">
@@ -8681,7 +8681,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
@@ -8689,7 +8689,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
@@ -8697,7 +8697,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
@@ -8705,7 +8705,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16">
@@ -8713,7 +8713,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17">
@@ -8721,7 +8721,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18">
@@ -8729,7 +8729,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19">
@@ -8737,7 +8737,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20">
@@ -8745,7 +8745,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21">
@@ -8753,7 +8753,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22">
@@ -8761,7 +8761,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23">
@@ -8769,7 +8769,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24">
@@ -8777,7 +8777,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="25">
@@ -8785,7 +8785,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26">
@@ -8801,7 +8801,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28">
@@ -8817,7 +8817,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30">
@@ -8841,7 +8841,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33">
@@ -8857,7 +8857,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35">
@@ -8865,7 +8865,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="36">
@@ -8873,7 +8873,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37">
@@ -8881,7 +8881,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38">
@@ -8889,7 +8889,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="39">
@@ -8897,7 +8897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="40">
@@ -8905,7 +8905,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41">
@@ -9114,7 +9114,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3">
@@ -9122,7 +9122,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4">
@@ -9130,7 +9130,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
@@ -9138,7 +9138,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -9146,7 +9146,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7">
@@ -9154,7 +9154,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
@@ -9162,7 +9162,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -9170,7 +9170,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10">
@@ -9178,7 +9178,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11">
@@ -9186,7 +9186,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -9194,7 +9194,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13">
@@ -9202,7 +9202,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14">
@@ -9210,7 +9210,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
@@ -9218,7 +9218,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16">
@@ -9226,7 +9226,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17">
@@ -9234,7 +9234,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18">
@@ -9242,7 +9242,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19">
@@ -9250,7 +9250,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
@@ -9258,7 +9258,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
@@ -9266,7 +9266,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
@@ -9274,7 +9274,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23">
@@ -9282,7 +9282,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24">
@@ -9290,7 +9290,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="25">
@@ -9298,7 +9298,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="26">
@@ -9306,7 +9306,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="27">
@@ -9314,7 +9314,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28">
@@ -9322,7 +9322,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29">
@@ -9330,7 +9330,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30">
@@ -9338,7 +9338,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="31">
@@ -9346,7 +9346,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32">
@@ -9354,7 +9354,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33">
@@ -9370,7 +9370,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35">
@@ -9402,7 +9402,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="39">
@@ -9410,7 +9410,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40">
@@ -9418,7 +9418,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41">
@@ -9426,7 +9426,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="42">
@@ -9434,7 +9434,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="43">
@@ -9627,7 +9627,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3">
@@ -9635,7 +9635,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4">
@@ -9643,7 +9643,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -9651,7 +9651,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
@@ -9659,7 +9659,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -9667,7 +9667,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="8">
@@ -9675,7 +9675,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -9683,7 +9683,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
@@ -9691,7 +9691,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11">
@@ -9699,7 +9699,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12">
@@ -9707,7 +9707,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13">
@@ -9715,7 +9715,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -9723,7 +9723,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15">
@@ -9731,7 +9731,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16">
@@ -9739,7 +9739,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17">
@@ -9747,7 +9747,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18">
@@ -9755,7 +9755,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19">
@@ -9763,7 +9763,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20">
@@ -9771,7 +9771,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21">
@@ -9779,7 +9779,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22">
@@ -9787,7 +9787,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23">
@@ -9795,7 +9795,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
@@ -9803,7 +9803,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="25">
@@ -9811,7 +9811,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26">
@@ -9819,7 +9819,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27">
@@ -9827,7 +9827,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="28">
@@ -9835,7 +9835,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="29">
@@ -9843,7 +9843,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30">
@@ -9851,7 +9851,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31">
@@ -9859,7 +9859,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32">
@@ -9867,7 +9867,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="33">
@@ -9875,7 +9875,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34">
@@ -9883,7 +9883,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35">
@@ -9891,7 +9891,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36">
@@ -9899,7 +9899,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37">
@@ -9907,7 +9907,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38">
@@ -9923,7 +9923,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40">
@@ -9931,7 +9931,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41">
@@ -9939,7 +9939,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
@@ -9947,7 +9947,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43">
@@ -9955,7 +9955,7 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44">
@@ -10140,7 +10140,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3">
@@ -10148,7 +10148,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
@@ -10156,7 +10156,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -10164,7 +10164,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6">
@@ -10172,7 +10172,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7">
@@ -10180,7 +10180,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8">
@@ -10188,7 +10188,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9">
@@ -10196,7 +10196,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10">
@@ -10204,7 +10204,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -10212,7 +10212,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12">
@@ -10220,7 +10220,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13">
@@ -10228,7 +10228,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14">
@@ -10236,7 +10236,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15">
@@ -10244,7 +10244,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16">
@@ -10252,7 +10252,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17">
@@ -10260,7 +10260,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="18">
@@ -10268,7 +10268,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
@@ -10276,7 +10276,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20">
@@ -10284,7 +10284,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21">
@@ -10292,7 +10292,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22">
@@ -10300,7 +10300,7 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
@@ -10308,7 +10308,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="24">
@@ -10316,7 +10316,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="25">
@@ -10324,7 +10324,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="26">
@@ -10332,7 +10332,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="27">
@@ -10340,7 +10340,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28">
@@ -10348,7 +10348,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
@@ -10356,7 +10356,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30">
@@ -10364,7 +10364,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31">
@@ -10372,7 +10372,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32">
@@ -10380,7 +10380,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="33">
@@ -10388,7 +10388,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="34">
@@ -10396,7 +10396,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="35">
@@ -10404,7 +10404,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36">
@@ -10412,7 +10412,7 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37">
@@ -10420,7 +10420,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38">
@@ -10428,7 +10428,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39">
@@ -10436,7 +10436,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40">
@@ -10444,7 +10444,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41">
@@ -10452,7 +10452,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42">
@@ -10460,7 +10460,7 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43">
